--- a/F_dataset/DUD-E/PLK1/PLK1_prepare/PLK1_inactive.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_prepare/PLK1_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,1434 +5523,6 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>CHEMBL523487</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>361.3</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2</v>
-      </c>
-      <c r="M88" t="n">
-        <v>90.39</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
-        <v>56000</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>CHEMBL985261</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>CHEMBL1922225</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@]12C)C(C)C</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@@]21C)C(C)C</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>410.64</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>8</v>
-      </c>
-      <c r="K89" t="n">
-        <v>3</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>100000</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>CHEMBL1926231</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human PLK1 using casein as substrate</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>CHEMBL2152768</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>504.61</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>5</v>
-      </c>
-      <c r="K90" t="n">
-        <v>6</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4</v>
-      </c>
-      <c r="M90" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>1</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>CHEMBL2157438</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>CHEMBL1644620</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>387.44</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4</v>
-      </c>
-      <c r="K91" t="n">
-        <v>5</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4</v>
-      </c>
-      <c r="M91" t="n">
-        <v>84.83</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>19</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>CHEMBL1648812</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 10 uM after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>5</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>CHEMBL1019633</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>CHEMBL4247506</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>472.47</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2</v>
-      </c>
-      <c r="K93" t="n">
-        <v>5</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5</v>
-      </c>
-      <c r="M93" t="n">
-        <v>82.51000000000001</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
-        <v>1</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>CHEMBL4230199</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 1 uM by mobility shift microfluidics platform based assay relative to control</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>CHEMBL3759085</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>374.47</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>5</v>
-      </c>
-      <c r="K94" t="n">
-        <v>4</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4</v>
-      </c>
-      <c r="M94" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>CHEMBL3761596</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>CHEMBL1516890</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>275.31</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>4</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3</v>
-      </c>
-      <c r="M95" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>CHEMBL160333</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>349.17</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3</v>
-      </c>
-      <c r="K96" t="n">
-        <v>3</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2</v>
-      </c>
-      <c r="M96" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>CHEMBL1909342</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>305.4</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>3</v>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>CHEMBL1909414</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>453.55</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>7</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4</v>
-      </c>
-      <c r="M98" t="n">
-        <v>86.63</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>CHEMBL191705</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>400.46</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>7</v>
-      </c>
-      <c r="K99" t="n">
-        <v>3</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3</v>
-      </c>
-      <c r="M99" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>CHEMBL220244</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Cc1cc(O)cc(C)c1/C=C/c1cncc(C(=O)N(C)C)c1</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Cc1cc(O)cc(C)c1/C=C/c1cncc(C(=O)N(C)C)c1</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>296.37</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3</v>
-      </c>
-      <c r="K100" t="n">
-        <v>2</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2</v>
-      </c>
-      <c r="M100" t="n">
-        <v>53.43</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>CHEMBL384073</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>365.37</v>
-      </c>
-      <c r="H101" t="n">
-        <v>4</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3</v>
-      </c>
-      <c r="K101" t="n">
-        <v>4</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3</v>
-      </c>
-      <c r="M101" t="n">
-        <v>98.91</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>CHEMBL4213524</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>376.46</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2</v>
-      </c>
-      <c r="M102" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>4</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>CHEMBL4198487</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 10 uM using Ser/Thr-16 peptide substrate after 60 mins by Z'-LYTE assay relative to control</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>CHEMBL427159</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>430.42</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>6</v>
-      </c>
-      <c r="J103" t="n">
-        <v>5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>5</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5</v>
-      </c>
-      <c r="M103" t="n">
-        <v>77.23</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CHEMBL506153</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NCCNC)c21</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NCCNC)c21</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>330.35</v>
-      </c>
-      <c r="H104" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" t="n">
-        <v>8</v>
-      </c>
-      <c r="J104" t="n">
-        <v>6</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3</v>
-      </c>
-      <c r="L104" t="n">
-        <v>3</v>
-      </c>
-      <c r="M104" t="n">
-        <v>136.78</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>CHEMBL1962097</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
